--- a/Annotations/New/PrinceOfThorns.xlsx
+++ b/Annotations/New/PrinceOfThorns.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="princethorns" sheetId="1" r:id="rId1"/>
@@ -1241,14 +1241,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="64.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.109375" style="2" customWidth="1"/>
@@ -1314,7 +1315,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>6.1834861786035811E-2</v>
+        <v>0.7467346823772425</v>
       </c>
       <c r="B2" s="2">
         <v>79</v>
@@ -1338,7 +1339,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85117709942858188</v>
+        <v>0.31040993260935124</v>
       </c>
       <c r="B3" s="2">
         <v>54</v>
@@ -1359,7 +1360,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45875893589401096</v>
+        <v>0.19189561003032418</v>
       </c>
       <c r="B4" s="2">
         <v>59</v>
@@ -1380,7 +1381,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92066694142398675</v>
+        <v>0.57250220108129091</v>
       </c>
       <c r="B5" s="2">
         <v>104</v>
@@ -1404,7 +1405,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39565644421880708</v>
+        <v>0.10995912468935398</v>
       </c>
       <c r="B6" s="2">
         <v>51</v>
@@ -1428,7 +1429,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71954807530723153</v>
+        <v>7.2690170663744391E-2</v>
       </c>
       <c r="B7" s="2">
         <v>83</v>
@@ -1449,7 +1450,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43448142338732942</v>
+        <v>0.74991485682040371</v>
       </c>
       <c r="B8" s="2">
         <v>63</v>
@@ -1476,7 +1477,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25628769363166204</v>
+        <v>0.15666686457725199</v>
       </c>
       <c r="B9" s="2">
         <v>80</v>
@@ -1500,7 +1501,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16653454543897317</v>
+        <v>0.39101632023030541</v>
       </c>
       <c r="B10" s="2">
         <v>41</v>
@@ -1527,7 +1528,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16319293550327263</v>
+        <v>2.1379132203492968E-2</v>
       </c>
       <c r="B11" s="2">
         <v>97</v>
@@ -1551,7 +1552,7 @@
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40553280331467667</v>
+        <v>0.45068207526654469</v>
       </c>
       <c r="B12" s="2">
         <v>74</v>
@@ -1572,7 +1573,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55728105538305017</v>
+        <v>8.3900875487199267E-2</v>
       </c>
       <c r="B13" s="2">
         <v>27</v>
@@ -1593,7 +1594,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2171379917846129</v>
+        <v>0.72730318064368737</v>
       </c>
       <c r="B14" s="2">
         <v>33</v>
@@ -1614,7 +1615,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1005233079415033E-2</v>
+        <v>0.93923290375315149</v>
       </c>
       <c r="B15" s="2">
         <v>82</v>
@@ -1638,7 +1639,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95278788292284999</v>
+        <v>0.57785954540330875</v>
       </c>
       <c r="B16" s="2">
         <v>29</v>
@@ -1665,7 +1666,7 @@
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67643677300661575</v>
+        <v>0.82715772246258157</v>
       </c>
       <c r="B17" s="2">
         <v>40</v>
@@ -1692,7 +1693,7 @@
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32234539202255352</v>
+        <v>3.510422069287189E-2</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
@@ -1719,7 +1720,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86128136655349297</v>
+        <v>1.4465809168575428E-2</v>
       </c>
       <c r="B19" s="2">
         <v>86</v>
@@ -1740,7 +1741,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13895405340159606</v>
+        <v>0.30681671557842194</v>
       </c>
       <c r="B20" s="2">
         <v>23</v>
@@ -1761,7 +1762,7 @@
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31144356167090559</v>
+        <v>0.24266418484345009</v>
       </c>
       <c r="B21" s="2">
         <v>65</v>
@@ -1785,7 +1786,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1212341276657064</v>
+        <v>0.72591782968200702</v>
       </c>
       <c r="B22" s="2">
         <v>101</v>
@@ -1809,7 +1810,7 @@
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19331690195112694</v>
+        <v>0.51228570451198585</v>
       </c>
       <c r="B23" s="2">
         <v>69</v>
@@ -1839,7 +1840,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8875372391101255</v>
+        <v>0.37460824599218678</v>
       </c>
       <c r="B24" s="2">
         <v>76</v>
@@ -1863,7 +1864,7 @@
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.514999351866066E-2</v>
+        <v>0.9414707634703382</v>
       </c>
       <c r="B25" s="2">
         <v>99</v>
@@ -1890,7 +1891,7 @@
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69537534043163607</v>
+        <v>0.38448385750850855</v>
       </c>
       <c r="B26" s="2">
         <v>30</v>
@@ -1911,7 +1912,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86586553922532483</v>
+        <v>0.23636388914999629</v>
       </c>
       <c r="B27" s="2">
         <v>89</v>
@@ -1935,7 +1936,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81966035347703037</v>
+        <v>0.24332011814900267</v>
       </c>
       <c r="B28" s="2">
         <v>84</v>
@@ -1962,7 +1963,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77354619627744514</v>
+        <v>0.9444185849128981</v>
       </c>
       <c r="B29" s="2">
         <v>18</v>
@@ -1989,7 +1990,7 @@
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66439467319707668</v>
+        <v>0.35760032467795555</v>
       </c>
       <c r="B30" s="2">
         <v>95</v>
@@ -2016,7 +2017,7 @@
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24130628875468196</v>
+        <v>0.43737465159908651</v>
       </c>
       <c r="B31" s="2">
         <v>7</v>
@@ -2037,7 +2038,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90348851813529618</v>
+        <v>0.41431048568661266</v>
       </c>
       <c r="B32" s="2">
         <v>16</v>
@@ -2058,7 +2059,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36904696857264641</v>
+        <v>0.26104918681108236</v>
       </c>
       <c r="B33" s="2">
         <v>71</v>
@@ -2079,7 +2080,7 @@
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
-        <v>0.76940447630097297</v>
+        <v>0.77011655463617146</v>
       </c>
       <c r="B34" s="2">
         <v>15</v>
@@ -2100,7 +2101,7 @@
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55052862003155512</v>
+        <v>0.36925335892216482</v>
       </c>
       <c r="B35" s="2">
         <v>91</v>
@@ -2127,7 +2128,7 @@
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47009565940405895</v>
+        <v>0.48097635096995395</v>
       </c>
       <c r="B36" s="2">
         <v>50</v>
@@ -2151,7 +2152,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48844035801703256</v>
+        <v>9.2112752353910476E-2</v>
       </c>
       <c r="B37" s="2">
         <v>28</v>
@@ -2178,7 +2179,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0884983094037217E-3</v>
+        <v>0.75200601000589717</v>
       </c>
       <c r="B38" s="2">
         <v>56</v>
@@ -2202,7 +2203,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3209552807885743E-2</v>
+        <v>0.12264931221370168</v>
       </c>
       <c r="B39" s="2">
         <v>88</v>
@@ -2226,7 +2227,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97701770621131223</v>
+        <v>0.36409926591403008</v>
       </c>
       <c r="B40" s="2">
         <v>60</v>
@@ -2253,7 +2254,7 @@
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55895159212557666</v>
+        <v>0.57758263637223162</v>
       </c>
       <c r="B41" s="2">
         <v>92</v>
@@ -2277,7 +2278,7 @@
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69985520399882206</v>
+        <v>0.39517175910442581</v>
       </c>
       <c r="B42" s="2">
         <v>43</v>
@@ -2304,7 +2305,7 @@
     <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52648936264618318</v>
+        <v>0.55592607173199826</v>
       </c>
       <c r="B43" s="2">
         <v>49</v>
@@ -2325,7 +2326,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1098321129221942E-2</v>
+        <v>0.74633708521094999</v>
       </c>
       <c r="B44" s="2">
         <v>36</v>
@@ -2349,7 +2350,7 @@
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97932756083536343</v>
+        <v>0.63616685301821885</v>
       </c>
       <c r="B45" s="2">
         <v>68</v>
@@ -2373,7 +2374,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92146298974458529</v>
+        <v>0.18699267801596076</v>
       </c>
       <c r="B46" s="2">
         <v>20</v>
@@ -2394,7 +2395,7 @@
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72601655360857331</v>
+        <v>0.42085819859836382</v>
       </c>
       <c r="B47" s="2">
         <v>64</v>
@@ -2418,7 +2419,7 @@
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19899572545855648</v>
+        <v>2.9021967293777484E-3</v>
       </c>
       <c r="B48" s="2">
         <v>85</v>
@@ -2442,7 +2443,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56789999373497058</v>
+        <v>0.11639497041276281</v>
       </c>
       <c r="B49" s="2">
         <v>39</v>
@@ -2463,7 +2464,7 @@
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65968379506165764</v>
+        <v>0.2914613595779687</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -2484,7 +2485,7 @@
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6883029479962417</v>
+        <v>0.22933382414331438</v>
       </c>
       <c r="B51" s="2">
         <v>57</v>
@@ -2508,7 +2509,7 @@
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1218921431794593E-2</v>
+        <v>0.23638918110687557</v>
       </c>
       <c r="B52" s="2">
         <v>8</v>
@@ -2529,7 +2530,7 @@
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4003952595536806</v>
+        <v>5.0871655431822371E-2</v>
       </c>
       <c r="B53" s="2">
         <v>73</v>
@@ -2550,7 +2551,7 @@
     <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95454003889472139</v>
+        <v>0.48668841895838955</v>
       </c>
       <c r="B54" s="2">
         <v>53</v>
@@ -2571,7 +2572,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51048737964040414</v>
+        <v>0.94042093381106717</v>
       </c>
       <c r="B55" s="2">
         <v>34</v>
@@ -2595,7 +2596,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36611470863373941</v>
+        <v>0.59982579506700595</v>
       </c>
       <c r="B56" s="2">
         <v>96</v>
@@ -2616,7 +2617,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14461525696519073</v>
+        <v>0.93365446655417605</v>
       </c>
       <c r="B57" s="2">
         <v>102</v>
@@ -2637,7 +2638,7 @@
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64633214942562423</v>
+        <v>0.33048433833411273</v>
       </c>
       <c r="B58" s="2">
         <v>4</v>
@@ -2661,7 +2662,7 @@
     <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87616164545102082</v>
+        <v>7.2832818296833635E-2</v>
       </c>
       <c r="B59" s="2">
         <v>10</v>
@@ -2682,7 +2683,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81523027184788099</v>
+        <v>0.23326584989362409</v>
       </c>
       <c r="B60" s="2">
         <v>93</v>
@@ -2706,7 +2707,7 @@
     <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50320334307243808</v>
+        <v>0.882886652900848</v>
       </c>
       <c r="B61" s="2">
         <v>90</v>
@@ -2727,7 +2728,7 @@
     <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34028727590620045</v>
+        <v>0.75353785111980032</v>
       </c>
       <c r="B62" s="2">
         <v>66</v>
@@ -2751,7 +2752,7 @@
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.209805724950157E-2</v>
+        <v>0.61361372458657781</v>
       </c>
       <c r="B63" s="2">
         <v>11</v>
@@ -2772,7 +2773,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39059500516260204</v>
+        <v>3.9508210137566335E-2</v>
       </c>
       <c r="B64" s="2">
         <v>48</v>
@@ -2799,7 +2800,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61139029331814987</v>
+        <v>0.49114387267778725</v>
       </c>
       <c r="B65" s="2">
         <v>52</v>
@@ -2823,7 +2824,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A97" ca="1" si="2">RAND()</f>
-        <v>0.26887911576515877</v>
+        <v>0.67363565744298404</v>
       </c>
       <c r="B66" s="2">
         <v>106</v>
@@ -2847,7 +2848,7 @@
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90773499094710697</v>
+        <v>0.70482144598244023</v>
       </c>
       <c r="B67" s="2">
         <v>78</v>
@@ -2874,7 +2875,7 @@
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2153267899607163</v>
+        <v>0.74932385354789366</v>
       </c>
       <c r="B68" s="2">
         <v>77</v>
@@ -2898,7 +2899,7 @@
     <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60864340384569005</v>
+        <v>0.96142774731499714</v>
       </c>
       <c r="B69" s="2">
         <v>67</v>
@@ -2922,7 +2923,7 @@
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24231260786606446</v>
+        <v>0.51788468727604808</v>
       </c>
       <c r="B70" s="2">
         <v>42</v>
@@ -2946,7 +2947,7 @@
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65945513720690341</v>
+        <v>0.38527820872484531</v>
       </c>
       <c r="B71" s="2">
         <v>55</v>
@@ -2970,7 +2971,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44619194411228991</v>
+        <v>0.93653627788090343</v>
       </c>
       <c r="B72" s="2">
         <v>94</v>
@@ -2997,7 +2998,7 @@
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80178168553128237</v>
+        <v>1.0719006541675125E-3</v>
       </c>
       <c r="B73" s="2">
         <v>25</v>
@@ -3024,7 +3025,7 @@
     <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76647000742377258</v>
+        <v>0.72970096171409338</v>
       </c>
       <c r="B74" s="2">
         <v>3</v>
@@ -3048,7 +3049,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53140293039986441</v>
+        <v>0.45024632119490593</v>
       </c>
       <c r="B75" s="2">
         <v>81</v>
@@ -3069,7 +3070,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10656374702046834</v>
+        <v>0.88864168835220891</v>
       </c>
       <c r="B76" s="2">
         <v>14</v>
@@ -3093,7 +3094,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69689035461590143</v>
+        <v>0.45026990486906338</v>
       </c>
       <c r="B77" s="2">
         <v>61</v>
@@ -3114,7 +3115,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75947153776093745</v>
+        <v>0.27534944578928311</v>
       </c>
       <c r="B78" s="2">
         <v>21</v>
@@ -3135,7 +3136,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40820660505842632</v>
+        <v>6.6499422510918782E-2</v>
       </c>
       <c r="B79" s="2">
         <v>6</v>
@@ -3156,7 +3157,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85771898309452943</v>
+        <v>0.23431333706791602</v>
       </c>
       <c r="B80" s="2">
         <v>35</v>
@@ -3177,7 +3178,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16079562358636146</v>
+        <v>0.32097849716127225</v>
       </c>
       <c r="B81" s="2">
         <v>38</v>
@@ -3201,7 +3202,7 @@
     <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72421752952170459</v>
+        <v>0.16284642141222438</v>
       </c>
       <c r="B82" s="2">
         <v>26</v>
@@ -3225,7 +3226,7 @@
     <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96883865605773456</v>
+        <v>0.41175578913964206</v>
       </c>
       <c r="B83" s="2">
         <v>5</v>
@@ -3246,7 +3247,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81603071202724486</v>
+        <v>0.4087557475566389</v>
       </c>
       <c r="B84" s="2">
         <v>87</v>
@@ -3270,7 +3271,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80559937076765253</v>
+        <v>0.81335307952441183</v>
       </c>
       <c r="B85" s="2">
         <v>103</v>
@@ -3294,7 +3295,7 @@
     <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88362834880055041</v>
+        <v>0.65742955931690461</v>
       </c>
       <c r="B86" s="2">
         <v>62</v>
@@ -3318,7 +3319,7 @@
     <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42076274161283711</v>
+        <v>0.46995057776610927</v>
       </c>
       <c r="B87" s="2">
         <v>9</v>
@@ -3339,7 +3340,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13715425212918253</v>
+        <v>0.60976239499502749</v>
       </c>
       <c r="B88" s="2">
         <v>19</v>
@@ -3363,7 +3364,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74672926506721282</v>
+        <v>0.54088423651847395</v>
       </c>
       <c r="B89" s="2">
         <v>12</v>
@@ -3384,7 +3385,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26615365540210489</v>
+        <v>0.50229852423303567</v>
       </c>
       <c r="B90" s="2">
         <v>98</v>
@@ -3411,7 +3412,7 @@
     <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80464248778132186</v>
+        <v>0.33672425542445783</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
@@ -3432,7 +3433,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43914232500263317</v>
+        <v>0.65548335792329315</v>
       </c>
       <c r="B92" s="2">
         <v>32</v>
@@ -3453,7 +3454,7 @@
     <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53866219038118746</v>
+        <v>0.62522561712554681</v>
       </c>
       <c r="B93" s="2">
         <v>24</v>
@@ -3474,7 +3475,7 @@
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66200234049463313</v>
+        <v>0.53635014062070396</v>
       </c>
       <c r="B94" s="2">
         <v>100</v>
@@ -3501,7 +3502,7 @@
     <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96212477924048534</v>
+        <v>0.86661032333301746</v>
       </c>
       <c r="B95" s="2">
         <v>47</v>
@@ -3525,7 +3526,7 @@
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8191623631545103</v>
+        <v>0.90922053583448381</v>
       </c>
       <c r="B96" s="2">
         <v>37</v>
@@ -3552,7 +3553,7 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54304424403426377</v>
+        <v>0.80442582997542267</v>
       </c>
       <c r="B97" s="2">
         <v>22</v>
@@ -3573,7 +3574,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ref="A98:A107" ca="1" si="3">RAND()</f>
-        <v>0.3515861620093379</v>
+        <v>0.18994174719938306</v>
       </c>
       <c r="B98" s="2">
         <v>58</v>
@@ -3597,7 +3598,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0075787240682597E-2</v>
+        <v>0.21620431839120413</v>
       </c>
       <c r="B99" s="2">
         <v>13</v>
@@ -3618,7 +3619,7 @@
     <row r="100" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52462378539662091</v>
+        <v>6.0351821627393498E-3</v>
       </c>
       <c r="B100" s="2">
         <v>70</v>
@@ -3642,7 +3643,7 @@
     <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22923065875435555</v>
+        <v>0.2179921172976107</v>
       </c>
       <c r="B101" s="2">
         <v>45</v>
@@ -3666,7 +3667,7 @@
     <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36193373770834747</v>
+        <v>0.85161515109932795</v>
       </c>
       <c r="B102" s="2">
         <v>72</v>
@@ -3690,7 +3691,7 @@
     <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50337268463643214</v>
+        <v>0.20671273828773595</v>
       </c>
       <c r="B103" s="2">
         <v>44</v>
@@ -3714,7 +3715,7 @@
     <row r="104" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59402405786414847</v>
+        <v>0.99054450949835593</v>
       </c>
       <c r="B104" s="2">
         <v>105</v>
@@ -3735,7 +3736,7 @@
     <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86490178755904756</v>
+        <v>0.79331715910884659</v>
       </c>
       <c r="B105" s="2">
         <v>46</v>
@@ -3759,7 +3760,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52283006142423771</v>
+        <v>0.98193235445769755</v>
       </c>
       <c r="B106" s="2">
         <v>31</v>
@@ -3780,7 +3781,7 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65841810337046391</v>
+        <v>0.53483258978104797</v>
       </c>
       <c r="B107" s="2">
         <v>75</v>
@@ -3900,7 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
